--- a/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,13 +977,405 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1322,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,17 +1334,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1353,14 +1374,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.98</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1369,13 +1412,799 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3263</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2325</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -580,340 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2181</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1492</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011603</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴业高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0960</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519172</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浦银安盛睿智精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011604</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴业高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011031</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519173</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛睿智精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +532,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1317,13 +1739,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,36 +1796,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4600</t>
+          <t>1.3263</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1412,36 +1834,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2371</t>
+          <t>0.2325</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1450,36 +1872,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006279</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合A</t>
+          <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.56</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1621</t>
+          <t>0.2181</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1488,36 +1910,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>011030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.1492</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1526,36 +1948,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002810</t>
+          <t>011603</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信转型创新成长灵活配置混合</t>
+          <t>兴业高端制造混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>88.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1398</t>
+          <t>0.0960</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1564,32 +1986,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>519172</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1602,36 +2024,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1640,36 +2062,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010301</t>
+          <t>011604</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合A</t>
+          <t>兴业高端制造混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>88.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1678,36 +2100,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011030</t>
+          <t>011031</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.20</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1716,36 +2138,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010808</t>
+          <t>519173</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合A</t>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1754,458 +2176,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011228</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合C</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.55</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011031</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010809</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>达诚策略先锋混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010302</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>165528</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011098</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>达诚宜创精选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006280</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中金瑞祥灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>71.56</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014550</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.15</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -532,6 +549,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1343,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1739,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688107-安路科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>2.37</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -549,6 +566,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015850</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015920</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1250,7 +2461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2062,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2458,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
